--- a/叶泠泠/人物等级/全员等级.xlsx
+++ b/叶泠泠/人物等级/全员等级.xlsx
@@ -1,104 +1,284 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\人物等级\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEAA936-B5A0-493F-B32D-6494AA2AD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5229" yWindow="7191" windowWidth="26082" windowHeight="15198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>2634年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>叶泠泠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独孤雁</t>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修炼速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂环</t>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独孤雁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候吃了千年鲸胶，魂环年限提升500年。
-原本18级，吃冰火双草和绮罗幽香仙品，洗掉毒属性和魂环，等级回到10级，吸收2500年魂环，等级提升8级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神器生灵海棠特性：修炼速度x3，强化体质，超速再生，通过吸收稀有材料进化，凝聚魂环，沟通植物，坚固锋锐。
 觉醒武魂时，肉身和精神力均达到魂王境。
-吸收星罗灵珠和望穿秋水露，等级提升5级，精神力达到魂圣灵海境。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+小时后吃了很多鲸胶。
+能轻松进入深度冥想，综合魂力提升速度3.5，为了走炼体路线，花费2份魂力提升肉体。</t>
+  </si>
+  <si>
+    <t>紫1</t>
+  </si>
+  <si>
+    <t>小时候吃了很多千年鲸胶，魂环年限提升700年。</t>
+  </si>
+  <si>
+    <t>吸收星罗灵珠和望穿秋水露，等级提升5级，精神力达到魂圣灵海境。</t>
+  </si>
+  <si>
+    <t>紫2</t>
+  </si>
+  <si>
+    <t>吃冰火双草和绮罗幽香仙品，洗掉毒属性和魂环，获得冰火双属性，等级回到10级，吸收2500年魂环，等级提升5级。
+修炼时有叶泠泠武魂帮助，提升0.5，总共1.3。</t>
+  </si>
+  <si>
+    <t>黑黑</t>
+  </si>
+  <si>
+    <t>紫2紫6</t>
+  </si>
+  <si>
+    <t>吸收6500年魂环，等级提升3级。</t>
+  </si>
+  <si>
+    <t>紫2紫6紫9</t>
+  </si>
+  <si>
+    <t>吸收9000年魂环，等级提升3级。</t>
+  </si>
+  <si>
+    <t>黑黑黑</t>
+  </si>
+  <si>
+    <t>紫2紫6紫9紫9</t>
+  </si>
+  <si>
+    <t>吸收9000年魂环，等级提升2级。</t>
+  </si>
+  <si>
+    <t>黑黑黑黑</t>
+  </si>
+  <si>
+    <t>暂缓获取魂环</t>
+  </si>
+  <si>
+    <t>暂缓凝聚魂环</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,18 +287,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,32 +504,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -235,7 +909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -409,63 +1083,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="6" max="6" width="36.2109375" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="36.212962962963" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="37.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1">
+        <v>268241</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -477,27 +1149,27 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="124.2" spans="2:12">
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="99" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="3">
         <v>9</v>
@@ -506,17 +1178,259 @@
         <v>18</v>
       </c>
       <c r="J3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="69" spans="2:12">
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7">
         <v>1.3</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>268486</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>268545</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6"/>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>1.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8">
+        <v>268972</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7"/>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>1.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>269033</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>269520</v>
+      </c>
+      <c r="B9">
         <v>9</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>269702</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>270159</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>1.3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>270402</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/叶泠泠/人物等级/全员等级.xlsx
+++ b/叶泠泠/人物等级/全员等级.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>叶泠泠</t>
   </si>
@@ -112,7 +112,7 @@
     <t>紫2</t>
   </si>
   <si>
-    <t>吃冰火双草和绮罗幽香仙品，洗掉毒属性和魂环，获得冰火双属性，等级回到10级，吸收2500年魂环，等级提升5级。
+    <t>吃冰火双草和绮罗幽香仙品，洗掉毒属性和魂环，获得冰火双属性，武魂进化为冰火蛇龙，等级回到10级，吸收2500年魂环，等级提升5级。
 修炼时有叶泠泠武魂帮助，提升0.5，总共1.3。</t>
   </si>
   <si>
@@ -131,7 +131,7 @@
     <t>紫2紫6</t>
   </si>
   <si>
-    <t>吸收6500年魂环，等级提升3级。</t>
+    <t>血脉和修炼让体质超过魂宗吸收7000年魂环，等级提升3级。</t>
   </si>
   <si>
     <t>进入天斗皇家学院，与雪麟，石家兄弟，御风，奥斯罗成为同学，触发千仞雪下毒二皇子雪明事件</t>
@@ -140,15 +140,13 @@
     <t>红1红1红1</t>
   </si>
   <si>
-    <t>7.5吨力量，体质达到封号斗罗，精神力达到魂斗罗境界灵渊境。</t>
+    <t>7.5吨力量，体质达到封号斗罗，精神力达到魂斗罗境界灵渊境。
+领悟治愈和增幅魂技。</t>
   </si>
   <si>
     <t>黄3黄6</t>
   </si>
   <si>
-    <t>吃鲸胶增加500体质。</t>
-  </si>
-  <si>
     <t>黄3</t>
   </si>
   <si>
@@ -161,13 +159,13 @@
     <t>紫2紫6紫9</t>
   </si>
   <si>
-    <t>吸收9000年魂环，等级提升3级。</t>
+    <t>体质超过魂王但精神力不足，吸收9000年魂环，等级提升3级。</t>
   </si>
   <si>
     <t>身份暴露，回到武魂殿</t>
   </si>
   <si>
-    <t>建立天斗皇家学院零队，叶泠泠，独孤雁，雪麟，水冰儿，水月二，火舞，风笑天，老师独孤博</t>
+    <t>建立天斗皇家学院零队，叶泠泠，独孤雁，雪麟，水冰儿，水月二，火舞，风笑天，老师独孤博，叶泠泠辅助增加魂力修炼速度0.5，增强体质。</t>
   </si>
   <si>
     <t>红5红5红5</t>
@@ -179,10 +177,11 @@
     <t>紫2紫6紫9紫9</t>
   </si>
   <si>
-    <t>吸收9000年魂环，等级提升2级。</t>
-  </si>
-  <si>
-    <t>得到叶泠泠武魂辅助，修炼速度增加1.3。</t>
+    <t>体质接近魂帝但精神力不足，吸收9000年魂环，等级提升2级。</t>
+  </si>
+  <si>
+    <t>吃鲸胶增加500体质。
+得到叶泠泠武魂辅助，修炼速度增加1.3。</t>
   </si>
   <si>
     <t>黄3黄6紫1</t>
@@ -201,75 +200,176 @@
     <t>二十吨力量，体质接近极限斗罗</t>
   </si>
   <si>
-    <t>吃仙草，猎魂环，对战暗魔邪神虎，全大陆魂师大赛</t>
+    <t>叶泠泠提前探索龙谷入口，吃仙草，猎魂环，对战暗魔邪神虎，全大陆魂师大赛</t>
   </si>
   <si>
     <t>暂缓凝聚魂环，三十三吨力量，力量堪比纯力量封号斗罗，体质堪比一般极限斗罗。
+领悟拟生灵之金魂技。
 吸收暗魔邪神虎核心，获得时空属性，力量增加7吨，达到40吨。
 精神力达到超级斗罗境界。</t>
   </si>
   <si>
-    <t>暂缓获取魂环。</t>
-  </si>
-  <si>
-    <t>37+5+1=43</t>
-  </si>
-  <si>
-    <t>黄3黄6紫2紫6</t>
-  </si>
-  <si>
-    <t>吃绮罗郁金香，提升5级。</t>
+    <t>体质接近魂圣，暂缓获取魂环。</t>
+  </si>
+  <si>
+    <t>37+3=40</t>
+  </si>
+  <si>
+    <t>黄3黄6紫2紫8</t>
+  </si>
+  <si>
+    <t>吃绮罗郁金香，提升5级，不获取魂环，压制2级。</t>
   </si>
   <si>
     <t>42+6+2=50</t>
   </si>
   <si>
-    <t>黄3黄6紫1紫5</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，服用飘渺风铃草提升6级，进化极致之风，服用暗魔邪神虎风珠，提升2级，修炼速度不受极致属性影响。</t>
-  </si>
-  <si>
-    <t>35+5+1=41</t>
-  </si>
-  <si>
-    <t>黄3黄6紫2紫7</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，服用鸡冠凤凰葵提升5级，吸收魂环增加1级。</t>
-  </si>
-  <si>
-    <t>31+5=36</t>
+    <t>黄3黄6紫1紫8</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
+服用飘渺风铃草提升5级，服用暗魔邪神虎风珠，提升2级，进化极致之风，修炼速度不受极致属性影响。</t>
+  </si>
+  <si>
+    <t>34+6=40</t>
   </si>
   <si>
     <t>黄3黄6紫2</t>
   </si>
   <si>
-    <t>服用鲸胶增加500体质，服用八瓣仙兰，提升5级，增加修炼速度0.4。</t>
-  </si>
-  <si>
-    <t>27+6+1=34</t>
-  </si>
-  <si>
-    <t>服用鲸胶增加500体质，服用水仙玉肌骨，提升6级，修复天赋缺陷。</t>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环。
+服用鸡冠凤凰葵提升6级。</t>
+  </si>
+  <si>
+    <t>30+3+5=38</t>
+  </si>
+  <si>
+    <t>黄3黄6紫8</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼，体质接近魂王，吸收8000年魂环，等级增加3级。
+服用八瓣仙兰，提升5级，增加修炼速度0.4。</t>
+  </si>
+  <si>
+    <t>27+3=30</t>
+  </si>
+  <si>
+    <t>服用鲸胶增加500体质，叶泠泠辅助修炼。
+服用水仙玉肌骨，提升5级，修复天赋缺陷。
+压制2级。</t>
   </si>
   <si>
     <t>黄3黄6紫1紫4黑1</t>
   </si>
   <si>
-    <t>龙谷探险</t>
-  </si>
-  <si>
-    <t>本名魂环</t>
-  </si>
-  <si>
-    <t>飓风峡谷的风神</t>
+    <t>半年后开启龙谷探险，探险半年，出来后叶泠泠为大家制作魂环。</t>
+  </si>
+  <si>
+    <t>压制了3级魂力。</t>
+  </si>
+  <si>
+    <t>压制了2级魂力</t>
+  </si>
+  <si>
+    <t>压制4级。</t>
+  </si>
+  <si>
+    <t>压制2级。</t>
+  </si>
+  <si>
+    <t>1月时达到40级，压制2级。</t>
+  </si>
+  <si>
+    <t>50+6+4=60</t>
+  </si>
+  <si>
+    <t>红7红7红7红7红7红7</t>
+  </si>
+  <si>
+    <t>压制了6级魂力，加上吸收的龙魂，等级达到60级。
+生灵海棠吸收了二十个魂骨，品质提升，魂环等级提升到七十万年。
+吸收力量型龙魂，加上战斗和锻炼，力量达到60吨，堪比力量型超级斗罗。
+吸收精神属性龙魂，精神力达到极限斗罗灵域境。</t>
+  </si>
+  <si>
+    <t>50+5+5+6=66</t>
+  </si>
+  <si>
+    <t>紫2紫6紫9紫9红1红1</t>
+  </si>
+  <si>
+    <t>压制了5级魂力，加上吸收的龙魂，等级达到60级。
+吸收龙魂，武魂进化为冰火真龙。
+龙族血脉加上自身修炼，以及吸收龙魂，体质达到封号斗罗，可吸收十万年魂环，连续两个十万年魂环，等级增加6级。</t>
+  </si>
+  <si>
+    <t>40+7+5+4=56</t>
+  </si>
+  <si>
+    <t>黄3黄6紫2黑6黑6</t>
+  </si>
+  <si>
+    <t>压制7级。
+吸收龙魂增加5级，体质超过魂圣，天鹅血脉体质稍弱，可吸收两个6万年魂环，等级增加4级。</t>
+  </si>
+  <si>
+    <t>56+4+4=64</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫8黑7黑7</t>
+  </si>
+  <si>
+    <t>压制了6级魂力，加上吸收龙魂增加4级，等级达到60级。
+体质超过魂圣，可吸收7万年魂环，连续吸收两个7万年魂环，等级增加4级。</t>
+  </si>
+  <si>
+    <t>40+4+5+4=53</t>
+  </si>
+  <si>
+    <t>压制4级。
+吸收龙魂增加5级，进化极致之火，修炼速度不受影响。
+等级达到50级，武魂限制体质稍弱，可吸收两个6万年魂环，等级增加4级。</t>
+  </si>
+  <si>
+    <t>40+5+5+4=54</t>
+  </si>
+  <si>
+    <t>黄3黄6紫8黑8黑8</t>
+  </si>
+  <si>
+    <t>压制5级。
+吸收龙魂增加5级，等级达到50级，冰凤凰体质较强，可吸收8万年魂环，吸收两个等级增加4级。</t>
+  </si>
+  <si>
+    <t>30+6+5+5=46</t>
+  </si>
+  <si>
+    <t>黄3黄6黑6黑6</t>
+  </si>
+  <si>
+    <t>压制6级。
+吸收龙魂增加5级，豚武魂体质稍弱，可吸收两个6万年魂环，分别增加3级和2级。</t>
+  </si>
+  <si>
+    <t>黄3黄6紫1紫4黑1黑2</t>
+  </si>
+  <si>
+    <t>开始神考。</t>
+  </si>
+  <si>
+    <t>飓风峡谷的风神，与千仞雪，风笑天开启风神神靠，千仞雪会武魂殿开始天使神考。</t>
+  </si>
+  <si>
+    <t>瀚海乾坤罩认主水冰儿，前往海神岛</t>
+  </si>
+  <si>
+    <t>全大陆魂师大赛，史莱克不敢惹事是庸才。</t>
+  </si>
+  <si>
+    <t>返回海神岛，水冰儿成为海神，水月儿获得水神传承。</t>
   </si>
   <si>
     <t>极北之地寻找冰神传承失败，收获万载玄冰窟</t>
-  </si>
-  <si>
-    <t>瀚海乾坤罩子忍住水冰儿，前往海神岛</t>
   </si>
 </sst>
 </file>
@@ -435,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,18 +556,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8497B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,6 +599,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,16 +925,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -807,89 +943,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,46 +1048,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,6 +1173,16 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00A9D08E"/>
+      <color rgb="008EA9DB"/>
+      <color rgb="008497B0"/>
+      <color rgb="00F4B084"/>
+      <color rgb="009BC2E6"/>
+      <color rgb="00FFD966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1273,43 +1449,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.9259259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.787037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="20.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="36.212962962963" customWidth="1"/>
     <col min="7" max="7" width="2.35185185185185" customWidth="1"/>
-    <col min="11" max="11" width="14.1388888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="20.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="37.287037037037" customWidth="1"/>
     <col min="13" max="13" width="2.35185185185185" customWidth="1"/>
-    <col min="15" max="15" width="10.8518518518519" customWidth="1"/>
-    <col min="17" max="17" width="12.787037037037" customWidth="1"/>
+    <col min="15" max="15" width="14.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
     <col min="18" max="18" width="31.5740740740741" customWidth="1"/>
     <col min="19" max="19" width="2.28703703703704" customWidth="1"/>
-    <col min="21" max="21" width="10.8518518518519" customWidth="1"/>
-    <col min="23" max="23" width="12.787037037037" customWidth="1"/>
+    <col min="21" max="21" width="11.8888888888889" customWidth="1"/>
+    <col min="23" max="23" width="20.8888888888889" customWidth="1"/>
     <col min="24" max="24" width="35.9259259259259" customWidth="1"/>
     <col min="25" max="25" width="2.35185185185185" customWidth="1"/>
-    <col min="27" max="27" width="10.8518518518519" customWidth="1"/>
-    <col min="29" max="29" width="12.787037037037" customWidth="1"/>
+    <col min="27" max="27" width="14.5555555555556" customWidth="1"/>
+    <col min="29" max="29" width="17.5555555555556" customWidth="1"/>
     <col min="30" max="30" width="35.787037037037" customWidth="1"/>
     <col min="31" max="31" width="2.35185185185185" customWidth="1"/>
-    <col min="35" max="35" width="9.71296296296296" customWidth="1"/>
+    <col min="33" max="33" width="14.5555555555556" customWidth="1"/>
+    <col min="35" max="35" width="17.5555555555556" customWidth="1"/>
     <col min="36" max="36" width="36" customWidth="1"/>
     <col min="37" max="37" width="2.28703703703704" customWidth="1"/>
-    <col min="39" max="39" width="10.8518518518519" customWidth="1"/>
-    <col min="41" max="41" width="9.71296296296296" customWidth="1"/>
+    <col min="39" max="39" width="14.5555555555556" customWidth="1"/>
+    <col min="41" max="41" width="14.1111111111111" customWidth="1"/>
     <col min="42" max="42" width="35.712962962963" customWidth="1"/>
     <col min="43" max="43" width="2.35185185185185" customWidth="1"/>
-    <col min="47" max="47" width="15.787037037037" customWidth="1"/>
+    <col min="47" max="47" width="20.8888888888889" customWidth="1"/>
     <col min="48" max="48" width="37.787037037037" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1331,48 +1510,48 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="T1" s="18" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="T1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Z1" s="23" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AF1" s="24" t="s">
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AF1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AL1" s="24" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AL1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AR1" s="31" t="s">
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AR1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
     </row>
     <row r="2" spans="2:48">
       <c r="B2" s="5" t="s">
@@ -1405,94 +1584,94 @@
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AH2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AM2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="26" t="s">
+      <c r="AN2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AV2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1524,65 +1703,65 @@
       <c r="K3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="20" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27">
         <v>0.4</v>
       </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="22" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37">
         <v>0.8</v>
       </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="28" t="s">
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39">
         <v>0.6</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="30" t="s">
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29">
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39">
         <v>0.8</v>
       </c>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="26" t="s">
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13">
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16">
         <v>0.8</v>
       </c>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="20" t="s">
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="69" spans="2:12">
+    <row r="4" ht="82.8" spans="2:12">
       <c r="B4" s="5">
         <v>6</v>
       </c>
@@ -1610,7 +1789,7 @@
       <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1645,7 +1824,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" ht="27.6" spans="1:12">
       <c r="A6" s="1">
         <v>268545</v>
       </c>
@@ -1676,7 +1855,7 @@
       <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1685,7 +1864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="27.6" spans="1:48">
+    <row r="9" ht="41.4" spans="1:48">
       <c r="A9" s="11">
         <v>268941</v>
       </c>
@@ -1715,88 +1894,86 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="N9" s="13">
+      <c r="N9" s="16">
         <v>10</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="16">
         <v>23</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="16">
         <v>0.8</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="21"/>
+      <c r="T9" s="27">
+        <v>15</v>
+      </c>
+      <c r="U9" s="27">
+        <v>28</v>
+      </c>
+      <c r="V9" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="27"/>
+      <c r="Z9" s="37">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="37">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="AC9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="37"/>
+      <c r="AF9" s="39">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="39">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="AI9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="21">
+      <c r="AJ9" s="39"/>
+      <c r="AL9" s="39">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="39">
         <v>15</v>
       </c>
-      <c r="U9" s="21">
-        <v>28</v>
-      </c>
-      <c r="V9" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="21"/>
-      <c r="Z9" s="27">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="27">
-        <v>21</v>
-      </c>
-      <c r="AB9" s="25">
+      <c r="AN9" s="39">
         <v>0.8</v>
       </c>
-      <c r="AC9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="27"/>
-      <c r="AF9" s="29">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="29">
-        <v>16</v>
-      </c>
-      <c r="AH9" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="AI9" s="26" t="s">
+      <c r="AO9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" s="39"/>
+      <c r="AR9" s="21">
+        <v>14</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>43</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AU9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AL9" s="29">
-        <v>9</v>
-      </c>
-      <c r="AM9" s="29">
-        <v>15</v>
-      </c>
-      <c r="AN9" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="AO9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP9" s="29"/>
-      <c r="AR9" s="17">
-        <v>14</v>
-      </c>
-      <c r="AS9" s="13">
-        <v>43</v>
-      </c>
-      <c r="AT9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AU9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV9" s="13"/>
+      <c r="AV9" s="16"/>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" ht="27.6" spans="1:48">
       <c r="A10" s="1">
         <v>268972</v>
       </c>
@@ -1811,7 +1988,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="6">
         <v>11</v>
@@ -1823,83 +2000,83 @@
         <v>1.3</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="N10" s="16">
+        <v>10</v>
+      </c>
+      <c r="O10" s="16">
+        <v>24</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="T10" s="27">
+        <v>15</v>
+      </c>
+      <c r="U10" s="27">
+        <v>28</v>
+      </c>
+      <c r="V10" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Z10" s="37">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="37">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AF10" s="39">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="39">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AL10" s="39">
+        <v>9</v>
+      </c>
+      <c r="AM10" s="39">
+        <v>15</v>
+      </c>
+      <c r="AN10" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AR10" s="21">
+        <v>14</v>
+      </c>
+      <c r="AS10" s="16">
+        <v>43</v>
+      </c>
+      <c r="AT10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="N10" s="13">
-        <v>10</v>
-      </c>
-      <c r="O10" s="13">
-        <v>24</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="T10" s="21">
-        <v>15</v>
-      </c>
-      <c r="U10" s="21">
-        <v>28</v>
-      </c>
-      <c r="V10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Z10" s="27">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="27">
-        <v>21</v>
-      </c>
-      <c r="AB10" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AF10" s="29">
-        <v>8</v>
-      </c>
-      <c r="AG10" s="29">
-        <v>16</v>
-      </c>
-      <c r="AH10" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AL10" s="29">
-        <v>9</v>
-      </c>
-      <c r="AM10" s="29">
-        <v>15</v>
-      </c>
-      <c r="AN10" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AR10" s="17">
-        <v>14</v>
-      </c>
-      <c r="AS10" s="13">
-        <v>43</v>
-      </c>
-      <c r="AT10" s="13">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="55.2" spans="1:48">
@@ -1916,10 +2093,10 @@
         <v>1.7</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H13" s="6">
         <v>12</v>
@@ -1931,91 +2108,91 @@
         <v>1.3</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="N13" s="16">
+        <v>11</v>
+      </c>
+      <c r="O13" s="16">
+        <v>28</v>
+      </c>
+      <c r="P13" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="13">
+      <c r="T13" s="27">
+        <v>16</v>
+      </c>
+      <c r="U13" s="27">
+        <v>32</v>
+      </c>
+      <c r="V13" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" s="37">
         <v>11</v>
       </c>
-      <c r="O13" s="13">
-        <v>28</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="AA13" s="37">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="37">
         <v>1.3</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="21">
-        <v>16</v>
-      </c>
-      <c r="U13" s="21">
-        <v>32</v>
-      </c>
-      <c r="V13" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="W13" s="19" t="s">
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF13" s="39">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="39">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="39">
+        <v>1.1</v>
+      </c>
+      <c r="AI13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL13" s="39">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="39">
+        <v>19</v>
+      </c>
+      <c r="AN13" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR13" s="21">
+        <v>15</v>
+      </c>
+      <c r="AS13" s="16">
         <v>49</v>
       </c>
-      <c r="X13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z13" s="27">
-        <v>11</v>
-      </c>
-      <c r="AA13" s="27">
-        <v>25</v>
-      </c>
-      <c r="AB13" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" s="29">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="29">
-        <v>21</v>
-      </c>
-      <c r="AH13" s="29">
-        <v>1.1</v>
-      </c>
-      <c r="AI13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL13" s="29">
-        <v>10</v>
-      </c>
-      <c r="AM13" s="29">
-        <v>19</v>
-      </c>
-      <c r="AN13" s="29">
-        <v>1.3</v>
-      </c>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR13" s="17">
-        <v>15</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>49</v>
-      </c>
-      <c r="AT13" s="13">
+      <c r="AT13" s="16">
         <v>1</v>
       </c>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="1">
@@ -2031,10 +2208,10 @@
         <v>1.7</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="6">
         <v>13</v>
@@ -2047,79 +2224,79 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="N14" s="13">
+      <c r="N14" s="16">
         <v>12</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="16">
         <v>29</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="T14" s="21">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="T14" s="27">
         <v>17</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="27">
         <v>32</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="27">
         <v>1.5</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Z14" s="27">
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Z14" s="37">
         <v>11</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="37">
         <v>26</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AB14" s="37">
         <v>1.3</v>
       </c>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AF14" s="29">
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AF14" s="39">
         <v>10</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="39">
         <v>22</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="39">
         <v>1.1</v>
       </c>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AL14" s="29">
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AL14" s="39">
         <v>11</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="39">
         <v>19</v>
       </c>
-      <c r="AN14" s="29">
+      <c r="AN14" s="39">
         <v>1.3</v>
       </c>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AR14" s="13">
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AR14" s="16">
         <v>16</v>
       </c>
-      <c r="AS14" s="13">
+      <c r="AS14" s="16">
         <v>49</v>
       </c>
-      <c r="AT14" s="13">
+      <c r="AT14" s="16">
         <v>1</v>
       </c>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="17" ht="82.8" spans="1:48">
+    <row r="17" ht="96.6" spans="1:48">
       <c r="A17" s="1">
         <v>270159</v>
       </c>
@@ -2134,7 +2311,7 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6">
         <v>14</v>
@@ -2146,122 +2323,364 @@
         <v>1.3</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="16">
+        <v>13</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="13">
+      <c r="P17" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="27">
+        <v>18</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="37">
         <v>13</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="AA17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="AC17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF17" s="39">
+        <v>11</v>
+      </c>
+      <c r="AG17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="AI17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" s="39">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN17" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AO17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR17" s="16">
+        <v>17</v>
+      </c>
+      <c r="AS17" s="16">
         <v>57</v>
       </c>
-      <c r="P17" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="T17" s="21">
-        <v>18</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="V17" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="X17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z17" s="27">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB17" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="AC17" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD17" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF17" s="29">
-        <v>11</v>
-      </c>
-      <c r="AG17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH17" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="AI17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL17" s="29">
-        <v>12</v>
-      </c>
-      <c r="AM17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN17" s="29">
-        <v>1.3</v>
-      </c>
-      <c r="AO17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP17" s="30" t="s">
+      <c r="AT17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AR17" s="13">
-        <v>17</v>
-      </c>
-      <c r="AS17" s="13">
-        <v>57</v>
-      </c>
-      <c r="AT17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV17" s="13"/>
+      <c r="AV17" s="16"/>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" s="1">
+        <v>270341</v>
+      </c>
+      <c r="B20" s="12">
+        <v>12</v>
+      </c>
+      <c r="C20" s="12">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="H20" s="13">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13">
+        <v>50</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="22">
+        <v>14</v>
+      </c>
+      <c r="O20" s="22">
+        <v>40</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="30">
+        <v>19</v>
+      </c>
+      <c r="U20" s="30">
+        <v>50</v>
+      </c>
+      <c r="V20" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="40">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="40">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="41">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="41">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AI20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ20" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="41">
+        <v>13</v>
+      </c>
+      <c r="AM20" s="41">
+        <v>30</v>
+      </c>
+      <c r="AN20" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR20" s="22">
+        <v>18</v>
+      </c>
+      <c r="AS20" s="22">
+        <v>59</v>
+      </c>
+      <c r="AT20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="10" t="s">
-        <v>73</v>
+    <row r="21" ht="110.4" spans="1:48">
+      <c r="A21" s="1">
+        <v>270525</v>
+      </c>
+      <c r="B21" s="12">
+        <v>12</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="13">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="22">
+        <v>14</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="30">
+        <v>19</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" s="40">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB21" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AC21" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD21" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF21" s="41">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH21" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AI21" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL21" s="41">
+        <v>13</v>
+      </c>
+      <c r="AM21" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN21" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="AO21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP21" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR21" s="22">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="22">
+        <v>61</v>
+      </c>
+      <c r="AT21" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV21" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="10" t="s">
-        <v>74</v>
+    <row r="24" spans="2:2">
+      <c r="B24" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="10" t="s">
-        <v>75</v>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="10" t="s">
-        <v>76</v>
-      </c>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
